--- a/data/trans_dic/P57B3_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57B3_R-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.09459742825386211</v>
+        <v>0.09459742825386212</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.09212686479632773</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07261286619666134</v>
+        <v>0.07176687863791606</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07157129939433754</v>
+        <v>0.07080459107051557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07684890994750297</v>
+        <v>0.07713813291887332</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1240041434116689</v>
+        <v>0.1271605218833877</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1200472313497189</v>
+        <v>0.1175201504906809</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1123891730921936</v>
+        <v>0.1155016229348048</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06715433152181172</v>
+        <v>0.06563666968010073</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07593005736971419</v>
+        <v>0.07955003185535431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07815354756615378</v>
+        <v>0.0773115456434111</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1161052609725901</v>
+        <v>0.1179050903206369</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.12729384261939</v>
+        <v>0.1264487689386813</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1125521479378711</v>
+        <v>0.1123499733952122</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09163631366535573</v>
+        <v>0.09129961308265705</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1145106537809549</v>
+        <v>0.1155816314966969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1046561448213887</v>
+        <v>0.1054127905545699</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1512252639491991</v>
+        <v>0.1437836397755144</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1938366050486028</v>
+        <v>0.1997942332924497</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1508989209446149</v>
+        <v>0.1516680714508206</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1123237055800914</v>
+        <v>0.1128778310057735</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08116972071632668</v>
+        <v>0.08148633366310688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1036354177796589</v>
+        <v>0.1016616598603802</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.150545913812053</v>
+        <v>0.1516427893502755</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1146712583323267</v>
+        <v>0.1161150385747878</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1302040390064855</v>
+        <v>0.1291690424578907</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1815545779328954</v>
+        <v>0.1815545779328953</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.196993697463003</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1520905952950395</v>
+        <v>0.1497736768790582</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1750652934116067</v>
+        <v>0.1762048643344339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1717805819028073</v>
+        <v>0.1718386582092299</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2135040711369493</v>
+        <v>0.2186968942254489</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2212422406181633</v>
+        <v>0.2201957681575505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2108700215962174</v>
+        <v>0.2103438140747182</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.04306291397740059</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1554377737885955</v>
+        <v>0.1554377737885956</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1307343552167388</v>
+        <v>0.1307343552167387</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02015678656207889</v>
+        <v>0.01890541560680485</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1337642286060802</v>
+        <v>0.1353606262805654</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1136473021997811</v>
+        <v>0.1119829629370801</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09352378635217576</v>
+        <v>0.09114113867308581</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1787774078033642</v>
+        <v>0.1779498495630094</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1498467200873764</v>
+        <v>0.1501744735136887</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1100678867452699</v>
+        <v>0.1092411789759621</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1264181891385597</v>
+        <v>0.1265167773682881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1206674362750165</v>
+        <v>0.1207080999418658</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1314066671436957</v>
+        <v>0.1301989098269085</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1457927186625174</v>
+        <v>0.1465225288075535</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.135434385743253</v>
+        <v>0.1361000837892199</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>39898</v>
+        <v>39433</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34956</v>
+        <v>34582</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>79760</v>
+        <v>80060</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>68136</v>
+        <v>69870</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>58632</v>
+        <v>57398</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>116646</v>
+        <v>119876</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32450</v>
+        <v>31716</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31995</v>
+        <v>33521</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>70697</v>
+        <v>69935</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56103</v>
+        <v>56973</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53639</v>
+        <v>53283</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>101813</v>
+        <v>101631</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>43217</v>
+        <v>43058</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21470</v>
+        <v>21671</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>68980</v>
+        <v>69479</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>71320</v>
+        <v>67810</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36344</v>
+        <v>37461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>99459</v>
+        <v>99966</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>127029</v>
+        <v>127655</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69904</v>
+        <v>70177</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>206455</v>
+        <v>202523</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>170255</v>
+        <v>171495</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98756</v>
+        <v>100000</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>259383</v>
+        <v>257321</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>86382</v>
+        <v>85066</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>145162</v>
+        <v>146106</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>240003</v>
+        <v>240084</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>121263</v>
+        <v>124212</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>183451</v>
+        <v>182583</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>294617</v>
+        <v>293882</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4782</v>
+        <v>4485</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>112618</v>
+        <v>113962</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>122641</v>
+        <v>120845</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22186</v>
+        <v>21621</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>150515</v>
+        <v>149818</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>161705</v>
+        <v>162059</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>378677</v>
+        <v>375833</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>458847</v>
+        <v>459204</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>853117</v>
+        <v>853405</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>452091</v>
+        <v>447936</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>529168</v>
+        <v>531817</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>957519</v>
+        <v>962226</v>
       </c>
     </row>
     <row r="32">
